--- a/firefighter_route.xlsx
+++ b/firefighter_route.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\users\Desktop\專題\model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yung-li\Desktop\ff\new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2207401C-D5B3-41DF-9BAA-3FB49A4F4483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714B61AE-9727-4E11-8B5B-FE26F417B4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>i</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,6 +40,10 @@
   </si>
   <si>
     <t>k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>node</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -365,15 +369,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -386,8 +390,11 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -400,8 +407,11 @@
       <c r="D2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -415,7 +425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -429,7 +439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -443,7 +453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -457,7 +467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -471,7 +481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -485,7 +495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -499,7 +509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -513,7 +523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -527,7 +537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -541,7 +551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -555,7 +565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -569,7 +579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
